--- a/data/Master_LTE_RRC_OTA_Packet_updated.xlsx
+++ b/data/Master_LTE_RRC_OTA_Packet_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_8ea\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Racec\PycharmProjects\network-trace-application-predictor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D8DB98-4BDF-4189-9DB2-851870CBC2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CBD85-825F-450D-B1D6-D8B72E7AD224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,13 +963,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379:XFD381"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>33</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>38</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>37</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>65</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>34</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>33</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>173</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>35</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>34</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>39</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>33</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>33</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>56</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>38</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>38</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>38</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>38</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>46</v>
       </c>
@@ -2013,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2071,7 +2075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>46</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>97</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>33</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>38</v>
       </c>
@@ -2303,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>38</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>38</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>37</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -2477,7 +2481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>38</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>34</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>33</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>173</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>33</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>33</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>34</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>35</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>39</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>33</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>38</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>33</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>46</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>46</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>38</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>39</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>38</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>39</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>33</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>37</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>65</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>38</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>34</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>33</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>173</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>33</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>35</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>33</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>34</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>39</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>33</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>33</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>173</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>33</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>35</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>33</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>34</v>
       </c>
@@ -3550,7 +3554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>39</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>33</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>56</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>38</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>49</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>49</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>38</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>38</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>37</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>65</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>38</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>34</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>33</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>173</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>33</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>35</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>33</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>34</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>39</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>33</v>
       </c>
@@ -4130,7 +4134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>38</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>38</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>33</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>56</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>56</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>33</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>49</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>33</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>56</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>38</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>46</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>38</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>39</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>39</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>38</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>63</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>80</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>40</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>63</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>80</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>128</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>38</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>37</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>65</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>38</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>34</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>33</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>173</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>33</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>35</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>33</v>
       </c>
@@ -5087,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>34</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>39</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>33</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>53</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>38</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>46</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>38</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>38</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>38</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>37</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>65</v>
       </c>
@@ -5406,7 +5410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>38</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>34</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>33</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>173</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>33</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>35</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>33</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>34</v>
       </c>
@@ -5638,7 +5642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>53</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>56</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>38</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>58</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>33</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>33</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>46</v>
       </c>
@@ -5841,7 +5845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>37</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>65</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>38</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>34</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>33</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>158</v>
       </c>
@@ -6015,7 +6019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>33</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>39</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>33</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>34</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>39</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>33</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>53</v>
       </c>
@@ -6218,7 +6222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>38</v>
       </c>
@@ -6247,7 +6251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>38</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>46</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>38</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>38</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>33</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>38</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>34</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>33</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>173</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>33</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>35</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>33</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>34</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>39</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>33</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>38</v>
       </c>
@@ -6711,7 +6715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>33</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>46</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>46</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>46</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>38</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>38</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>34</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>33</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>173</v>
       </c>
@@ -6972,7 +6976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>33</v>
       </c>
@@ -7001,7 +7005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>33</v>
       </c>
@@ -7030,7 +7034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>34</v>
       </c>
@@ -7059,7 +7063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>35</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>39</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>33</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>35</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>33</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>34</v>
       </c>
@@ -7233,7 +7237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>39</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>33</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>33</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>46</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>37</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>65</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>38</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>38</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>49</v>
       </c>
@@ -7494,7 +7498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>38</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>38</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>38</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>38</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>38</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>38</v>
       </c>
@@ -7668,7 +7672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>38</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>38</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>53</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>53</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>53</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>38</v>
       </c>
@@ -7842,7 +7846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>33</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>37</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>65</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>38</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>34</v>
       </c>
@@ -7987,7 +7991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>33</v>
       </c>
@@ -8016,7 +8020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>173</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>33</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>35</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>33</v>
       </c>
@@ -8132,7 +8136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>34</v>
       </c>
@@ -8161,7 +8165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>43</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>33</v>
       </c>
@@ -8219,7 +8223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>38</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>53</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>46</v>
       </c>
@@ -8306,7 +8310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>33</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>38</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>38</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>37</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>65</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>38</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>38</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>97</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>33</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>38</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>53</v>
       </c>
@@ -8625,7 +8629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>46</v>
       </c>
@@ -8654,7 +8658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>38</v>
       </c>
@@ -8683,7 +8687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>56</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>38</v>
       </c>
@@ -8741,7 +8745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>38</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>56</v>
       </c>
@@ -8799,7 +8803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>38</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>38</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>97</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>33</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>35</v>
       </c>
@@ -8944,7 +8948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>39</v>
       </c>
@@ -8973,7 +8977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>33</v>
       </c>
@@ -9002,7 +9006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>56</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>56</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>33</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>38</v>
       </c>
@@ -9118,7 +9122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>33</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>38</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>43</v>
       </c>
@@ -9205,7 +9209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>33</v>
       </c>
@@ -9234,7 +9238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>53</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>37</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>65</v>
       </c>
@@ -9321,7 +9325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>38</v>
       </c>
@@ -9350,7 +9354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>34</v>
       </c>
@@ -9379,7 +9383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>33</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>173</v>
       </c>
@@ -9437,7 +9441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>33</v>
       </c>
@@ -9466,7 +9470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>33</v>
       </c>
@@ -9495,7 +9499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>34</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>35</v>
       </c>
@@ -9553,7 +9557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>39</v>
       </c>
@@ -9582,7 +9586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>33</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>56</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>38</v>
       </c>
@@ -9669,7 +9673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>46</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>38</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>38</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>38</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>37</v>
       </c>
@@ -9814,7 +9818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>65</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>38</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>34</v>
       </c>
@@ -9901,7 +9905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>33</v>
       </c>
@@ -9930,7 +9934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>158</v>
       </c>
@@ -9959,7 +9963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>33</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>39</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>33</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>34</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>39</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>33</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>38</v>
       </c>
@@ -10162,7 +10166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>38</v>
       </c>
@@ -10191,7 +10195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>38</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>33</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>38</v>
       </c>
@@ -10278,7 +10282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>37</v>
       </c>
@@ -10307,7 +10311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>65</v>
       </c>
@@ -10336,7 +10340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>38</v>
       </c>
@@ -10365,7 +10369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>34</v>
       </c>
@@ -10394,7 +10398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>33</v>
       </c>
@@ -10423,7 +10427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>173</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>33</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>35</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>33</v>
       </c>
@@ -10539,7 +10543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>60</v>
       </c>
@@ -10568,7 +10572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>38</v>
       </c>
@@ -10597,7 +10601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>38</v>
       </c>
@@ -10626,7 +10630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>33</v>
       </c>
@@ -10655,7 +10659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>38</v>
       </c>
@@ -10684,7 +10688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>38</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>38</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>38</v>
       </c>
@@ -10771,7 +10775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>57</v>
       </c>
@@ -10800,7 +10804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>53</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>56</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>33</v>
       </c>
@@ -10887,7 +10891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>49</v>
       </c>
@@ -10916,7 +10920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>101</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>33</v>
       </c>
@@ -10974,7 +10978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>46</v>
       </c>
@@ -11003,7 +11007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>46</v>
       </c>
@@ -11032,7 +11036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>50</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>46</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>38</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>38</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>60</v>
       </c>
@@ -11177,7 +11181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>38</v>
       </c>
@@ -11206,7 +11210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>46</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>46</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>46</v>
       </c>
@@ -11293,7 +11297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>38</v>
       </c>
@@ -11322,7 +11326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>38</v>
       </c>
@@ -11351,7 +11355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>38</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>38</v>
       </c>
@@ -11409,7 +11413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>37</v>
       </c>
@@ -11438,7 +11442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>65</v>
       </c>
@@ -11467,7 +11471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>38</v>
       </c>
@@ -11496,7 +11500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>34</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>33</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>173</v>
       </c>
@@ -11583,7 +11587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>33</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>33</v>
       </c>
@@ -11641,7 +11645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>34</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>35</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>39</v>
       </c>
@@ -11728,7 +11732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>33</v>
       </c>
@@ -11757,7 +11761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>38</v>
       </c>
@@ -11786,7 +11790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>56</v>
       </c>
@@ -11815,7 +11819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>38</v>
       </c>
@@ -11844,7 +11848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>56</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>38</v>
       </c>
@@ -11902,7 +11906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>46</v>
       </c>
@@ -11931,7 +11935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>38</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>33</v>
       </c>
@@ -11989,7 +11993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>49</v>
       </c>
@@ -12018,7 +12022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>38</v>
       </c>
@@ -12047,7 +12051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>106</v>
       </c>
@@ -12076,7 +12080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>33</v>
       </c>
@@ -12105,7 +12109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>53</v>
       </c>
@@ -12134,7 +12138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>46</v>
       </c>
@@ -12163,7 +12167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>38</v>
       </c>
@@ -12192,7 +12196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>33</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>56</v>
       </c>
@@ -12250,7 +12254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>38</v>
       </c>
@@ -12279,7 +12283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>46</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>58</v>
       </c>
@@ -12337,7 +12341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>33</v>
       </c>
@@ -12366,7 +12370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>39</v>
       </c>
@@ -12395,7 +12399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>56</v>
       </c>
@@ -12424,7 +12428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>39</v>
       </c>
@@ -12453,7 +12457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>46</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>33</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>38</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>38</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>33</v>
       </c>
@@ -12598,7 +12602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>38</v>
       </c>
@@ -12627,7 +12631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>33</v>
       </c>
@@ -12656,7 +12660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>38</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>38</v>
       </c>
@@ -12714,7 +12718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>38</v>
       </c>
@@ -12743,7 +12747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>38</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>57</v>
       </c>
@@ -12801,7 +12805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>43</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>33</v>
       </c>
@@ -12859,7 +12863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>38</v>
       </c>
@@ -12888,7 +12892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>38</v>
       </c>
@@ -12917,7 +12921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>37</v>
       </c>
@@ -12946,7 +12950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>65</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>38</v>
       </c>
@@ -13004,7 +13008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>34</v>
       </c>
@@ -13033,7 +13037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>33</v>
       </c>
@@ -13062,7 +13066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>173</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>33</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>33</v>
       </c>
@@ -13149,7 +13153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>34</v>
       </c>
@@ -13178,7 +13182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>35</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>39</v>
       </c>
@@ -13236,7 +13240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>33</v>
       </c>
@@ -13265,7 +13269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>33</v>
       </c>
@@ -13294,7 +13298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>38</v>
       </c>
@@ -13323,7 +13327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>38</v>
       </c>
@@ -13352,7 +13356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>38</v>
       </c>
@@ -13381,7 +13385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>46</v>
       </c>
@@ -13410,7 +13414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>38</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>38</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>37</v>
       </c>
@@ -13497,7 +13501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>65</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>38</v>
       </c>
@@ -13555,7 +13559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>34</v>
       </c>
@@ -13584,7 +13588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>33</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>158</v>
       </c>
@@ -13642,7 +13646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>33</v>
       </c>
@@ -13671,7 +13675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>42</v>
       </c>
@@ -13700,7 +13704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>33</v>
       </c>
@@ -13729,7 +13733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>34</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>56</v>
       </c>
@@ -13787,7 +13791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>101</v>
       </c>
@@ -13816,7 +13820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>33</v>
       </c>
@@ -13845,7 +13849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>38</v>
       </c>
@@ -13874,7 +13878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>38</v>
       </c>
@@ -13903,7 +13907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>38</v>
       </c>
@@ -13932,7 +13936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>46</v>
       </c>
@@ -13961,7 +13965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>38</v>
       </c>
@@ -13990,7 +13994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>38</v>
       </c>
@@ -14019,7 +14023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>38</v>
       </c>
@@ -14048,7 +14052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>56</v>
       </c>
@@ -14077,7 +14081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>38</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>56</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>46</v>
       </c>
@@ -14164,7 +14168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>56</v>
       </c>
@@ -14193,7 +14197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>38</v>
       </c>
@@ -14222,7 +14226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>38</v>
       </c>
@@ -14251,7 +14255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>38</v>
       </c>
@@ -14280,7 +14284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>38</v>
       </c>
@@ -14309,7 +14313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>56</v>
       </c>
@@ -14338,7 +14342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>38</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>38</v>
       </c>
@@ -14396,7 +14400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>38</v>
       </c>
@@ -14425,7 +14429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>39</v>
       </c>
@@ -14454,7 +14458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>33</v>
       </c>
@@ -14483,7 +14487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>38</v>
       </c>
@@ -14512,7 +14516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>38</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>38</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>61</v>
       </c>
@@ -14599,7 +14603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>38</v>
       </c>
@@ -14628,7 +14632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>61</v>
       </c>
@@ -14657,7 +14661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>43</v>
       </c>
@@ -14686,7 +14690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>33</v>
       </c>
@@ -14715,7 +14719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>38</v>
       </c>
@@ -14744,7 +14748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>46</v>
       </c>
@@ -14773,7 +14777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>53</v>
       </c>
@@ -14802,7 +14806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>53</v>
       </c>
@@ -14831,7 +14835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>101</v>
       </c>
@@ -14860,7 +14864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>33</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>38</v>
       </c>
@@ -14918,7 +14922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>33</v>
       </c>
@@ -14947,7 +14951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>46</v>
       </c>
@@ -14976,7 +14980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>63</v>
       </c>
@@ -15005,7 +15009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>38</v>
       </c>
@@ -15034,7 +15038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>38</v>
       </c>
@@ -15063,7 +15067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>37</v>
       </c>
@@ -15092,7 +15096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>65</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>38</v>
       </c>
@@ -15150,7 +15154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>34</v>
       </c>
@@ -15179,7 +15183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>33</v>
       </c>
@@ -15208,7 +15212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>158</v>
       </c>
@@ -15237,7 +15241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>33</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>39</v>
       </c>
@@ -15295,7 +15299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>33</v>
       </c>
@@ -15324,7 +15328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>34</v>
       </c>
@@ -15353,7 +15357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>46</v>
       </c>
@@ -15382,7 +15386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>50</v>
       </c>
@@ -15411,7 +15415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>33</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>60</v>
       </c>
@@ -15469,7 +15473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>38</v>
       </c>
@@ -15498,7 +15502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>38</v>
       </c>
@@ -15527,7 +15531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>39</v>
       </c>
@@ -15556,7 +15560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>33</v>
       </c>
@@ -15585,7 +15589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>33</v>
       </c>
@@ -15614,7 +15618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>33</v>
       </c>
@@ -15643,7 +15647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>37</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>65</v>
       </c>
@@ -15701,7 +15705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>38</v>
       </c>
@@ -15730,7 +15734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>57</v>
       </c>
@@ -15759,7 +15763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>38</v>
       </c>
@@ -15788,7 +15792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>33</v>
       </c>
@@ -15817,7 +15821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>60</v>
       </c>
@@ -15846,7 +15850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>39</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>104</v>
       </c>
@@ -15904,7 +15908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>147</v>
       </c>
@@ -15933,7 +15937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>33</v>
       </c>
@@ -15962,7 +15966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>33</v>
       </c>
@@ -15991,7 +15995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>46</v>
       </c>
@@ -16020,7 +16024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>37</v>
       </c>
@@ -16049,7 +16053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>65</v>
       </c>
@@ -16078,7 +16082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>38</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>34</v>
       </c>
@@ -16136,7 +16140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>33</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>173</v>
       </c>
@@ -16194,7 +16198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>33</v>
       </c>
@@ -16223,7 +16227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>35</v>
       </c>
@@ -16252,7 +16256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>33</v>
       </c>
@@ -16281,7 +16285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>34</v>
       </c>
@@ -16310,7 +16314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>66</v>
       </c>
@@ -16339,7 +16343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>147</v>
       </c>
@@ -16368,7 +16372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>33</v>
       </c>
@@ -16397,7 +16401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>65</v>
       </c>
@@ -16426,7 +16430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>38</v>
       </c>
@@ -16455,7 +16459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>34</v>
       </c>
@@ -16484,7 +16488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>33</v>
       </c>
@@ -16513,7 +16517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>177</v>
       </c>
@@ -16542,7 +16546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>33</v>
       </c>
@@ -16571,7 +16575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>33</v>
       </c>
@@ -16600,7 +16604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>34</v>
       </c>
@@ -16629,7 +16633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>39</v>
       </c>
@@ -16658,7 +16662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>39</v>
       </c>
@@ -16687,7 +16691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>33</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>133</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>33</v>
       </c>
@@ -16774,7 +16778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>147</v>
       </c>
@@ -16803,7 +16807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>33</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>38</v>
       </c>
@@ -16861,7 +16865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>60</v>
       </c>
@@ -16890,7 +16894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>33</v>
       </c>
@@ -16919,7 +16923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>38</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>37</v>
       </c>
@@ -16977,7 +16981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>65</v>
       </c>
@@ -17006,7 +17010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>38</v>
       </c>
@@ -17035,7 +17039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>34</v>
       </c>
@@ -17064,7 +17068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>33</v>
       </c>
@@ -17093,7 +17097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>177</v>
       </c>
@@ -17122,7 +17126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>33</v>
       </c>
@@ -17151,7 +17155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>39</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>33</v>
       </c>
@@ -17209,7 +17213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>34</v>
       </c>
@@ -17238,7 +17242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>33</v>
       </c>
@@ -17267,7 +17271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>88</v>
       </c>
@@ -17296,7 +17300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>33</v>
       </c>
@@ -17325,7 +17329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>57</v>
       </c>
@@ -17354,7 +17358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>72</v>
       </c>
@@ -17383,7 +17387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>128</v>
       </c>
@@ -17412,7 +17416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>40</v>
       </c>
@@ -17441,7 +17445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>33</v>
       </c>
@@ -17470,7 +17474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>34</v>
       </c>
@@ -17499,7 +17503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>53</v>
       </c>
@@ -17528,7 +17532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>38</v>
       </c>
@@ -17557,7 +17561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>38</v>
       </c>
@@ -17586,7 +17590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>38</v>
       </c>
@@ -17615,7 +17619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>57</v>
       </c>
@@ -17644,7 +17648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>72</v>
       </c>
@@ -17673,7 +17677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>100</v>
       </c>
@@ -17702,7 +17706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>37</v>
       </c>
@@ -17731,7 +17735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>65</v>
       </c>
@@ -17760,7 +17764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>38</v>
       </c>
@@ -17789,7 +17793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>34</v>
       </c>
@@ -17818,7 +17822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>33</v>
       </c>
@@ -17847,7 +17851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>180</v>
       </c>
@@ -17876,7 +17880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>33</v>
       </c>
@@ -17905,7 +17909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>42</v>
       </c>
@@ -17934,7 +17938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>33</v>
       </c>
@@ -17963,7 +17967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>34</v>
       </c>
@@ -17992,7 +17996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>39</v>
       </c>
@@ -18021,7 +18025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>40</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>33</v>
       </c>
@@ -18079,7 +18083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>38</v>
       </c>
@@ -18108,7 +18112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>60</v>
       </c>
@@ -18137,7 +18141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>38</v>
       </c>
